--- a/Arbeitsaufzeichnungen/Arbeitsaufzeichnung_Aron.xlsx
+++ b/Arbeitsaufzeichnungen/Arbeitsaufzeichnung_Aron.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Was</t>
   </si>
@@ -77,9 +77,6 @@
     <t>19.09.2019</t>
   </si>
   <si>
-    <t>25.09.2019</t>
-  </si>
-  <si>
     <t>26.09.2019</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>06.10.2019</t>
   </si>
   <si>
-    <t>12.10.2019</t>
-  </si>
-  <si>
     <t>03.10.2019</t>
   </si>
   <si>
@@ -114,14 +108,124 @@
   </si>
   <si>
     <t>24.10.2019</t>
+  </si>
+  <si>
+    <t>Python mit MySQLdb integrieren</t>
+  </si>
+  <si>
+    <t>26.10.2019</t>
+  </si>
+  <si>
+    <t>Betreuertreffung</t>
+  </si>
+  <si>
+    <t>30.10.2019</t>
+  </si>
+  <si>
+    <t>Einige Beispiele mit OpenCV probieren, um OpenCV kennen zu lernen</t>
+  </si>
+  <si>
+    <t>02.11.2019-04.11.2019</t>
+  </si>
+  <si>
+    <t>Erster Prototyp (Name eingeben, in der DB speichern, Schalter Integration, LED leuchten)</t>
+  </si>
+  <si>
+    <t>05.11.2019-06.11.2019</t>
+  </si>
+  <si>
+    <t>Prototyp erweitern (Skripts integrieren, Image Path, person table, Info table mit werte füllen)</t>
+  </si>
+  <si>
+    <t>16.11.2019</t>
+  </si>
+  <si>
+    <t>08.11.2019-16.11.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t>22.11.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototyp verbessern (Admin nur Aron durch Vergleichen zweien Bildes, Registrierung fertig) </t>
+  </si>
+  <si>
+    <t>24.11.2019</t>
+  </si>
+  <si>
+    <t>25.11.2019</t>
+  </si>
+  <si>
+    <t>3 Betreuertreffungen</t>
+  </si>
+  <si>
+    <t>6.11.2019, 13.11.2019, 24.11.2019</t>
+  </si>
+  <si>
+    <t>Image Capture in c++ mit einer Kamera</t>
+  </si>
+  <si>
+    <t>15.11.2019</t>
+  </si>
+  <si>
+    <t>SelectID_InsertInfo für eine bestimmte Person, die registrieren möchtet</t>
+  </si>
+  <si>
+    <t>27.11.2019</t>
+  </si>
+  <si>
+    <t>Probe machen, um die Toleranz, wenn zwei Fotos vergleicht werden, zu bestimmen</t>
+  </si>
+  <si>
+    <t>28.11.2019</t>
+  </si>
+  <si>
+    <t>12.10.2019-14.10.2019</t>
+  </si>
+  <si>
+    <t>25.09.2019-28.09.2019</t>
+  </si>
+  <si>
+    <t>29.11.2019-03.12.2019</t>
+  </si>
+  <si>
+    <t>Besprechung mit Betreuer</t>
+  </si>
+  <si>
+    <t>09.12.2019</t>
+  </si>
+  <si>
+    <t>05.12.2019-07.12.2019</t>
+  </si>
+  <si>
+    <t>06.12.2019</t>
+  </si>
+  <si>
+    <t>10.12.2019</t>
+  </si>
+  <si>
+    <t>Backup Prototyp erstellen (Admin loggt sich mit Password und wird keinen Vergleich zweien Bilder gemacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototyp verbessern (Admin nur Aron durch Vergleich zweien Bilder, Registrierung fertig) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,8 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" customWidth="1"/>
     <col min="3" max="3" width="59.1640625" customWidth="1"/>
   </cols>
@@ -447,13 +552,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -465,11 +570,11 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <f>SUM(C3:C16)</f>
-        <v>22</v>
+        <f>SUM(C3:C34)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -480,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -491,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -502,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -510,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -521,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -532,10 +637,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -543,10 +648,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -554,10 +659,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,40 +670,40 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -606,202 +711,215 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003628414263457242BDBEC754FB0B7597" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="512dd486f3dcb1a305092a953f2c8471">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdd8de57-a12a-47e3-a5b2-3ad9a80820bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9b9b481b92e75167617ce718ed6fe3a" ns2:_="">
-    <xsd:import namespace="fdd8de57-a12a-47e3-a5b2-3ad9a80820bc"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fdd8de57-a12a-47e3-a5b2-3ad9a80820bc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE5487E6-8AC9-47F8-A8E7-7EC74EA52A34}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD770F1-2C93-4C50-BD6F-4004364D1ACB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9D2E150-4C10-44B8-91A0-7050798C670D}"/>
 </file>
--- a/Arbeitsaufzeichnungen/Arbeitsaufzeichnung_Aron.xlsx
+++ b/Arbeitsaufzeichnungen/Arbeitsaufzeichnung_Aron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronterzeta/Documents/Shkolla austriake 2019-2020/Diplom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aronterzeta/Shkolla austriake/diplomarbeit/Arbeitsaufzeichnungen/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>Was</t>
   </si>
@@ -210,6 +210,99 @@
   </si>
   <si>
     <t xml:space="preserve">Prototyp verbessern (Admin nur Aron durch Vergleich zweien Bilder, Registrierung fertig) </t>
+  </si>
+  <si>
+    <t>Fehler in Log speichern</t>
+  </si>
+  <si>
+    <t>Status-Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>13.12.2019-16.12.2019</t>
+  </si>
+  <si>
+    <t>23.12.2019-26.12.2019</t>
+  </si>
+  <si>
+    <t>Array der Gesichtspunkte in zwei aufteilen. Das erste ist nur für die x-Achse und das zweite für die y-Achse</t>
+  </si>
+  <si>
+    <t>04.01.2020-07.01.2020</t>
+  </si>
+  <si>
+    <t>1 Betreuertreffung</t>
+  </si>
+  <si>
+    <t>14.01.2020</t>
+  </si>
+  <si>
+    <t>Dokumentation Korrektur</t>
+  </si>
+  <si>
+    <t>17.01.2020</t>
+  </si>
+  <si>
+    <t>25.01.2020</t>
+  </si>
+  <si>
+    <t>3 Prototyps gemacht für Backups, wenn ein nicht funktioniert</t>
+  </si>
+  <si>
+    <t>25.01.2020-27-01.2020</t>
+  </si>
+  <si>
+    <t>Dokumentation verarbeiten, weiter mit der Korrektur, Struktur der Dokumentation verbessern</t>
+  </si>
+  <si>
+    <t>31.01.2020</t>
+  </si>
+  <si>
+    <t>In Registrierung-Teil arbeiten, verschiedene Skripts miteinander verbinden, die richtigen Konsole-Parameter von Skript zu Skript übergeben</t>
+  </si>
+  <si>
+    <t>01.02.2020-02.02.2020</t>
+  </si>
+  <si>
+    <t>Automatische Konfiguration von Opencv in Raspberry PI</t>
+  </si>
+  <si>
+    <t>03.02.2020</t>
+  </si>
+  <si>
+    <t>Log (in Datenbank und in einer Text-File)</t>
+  </si>
+  <si>
+    <t>05.02.2020</t>
+  </si>
+  <si>
+    <t>Anpassung des Registrierungsteils, weil in der DB etwas geändert hat (von zwei Tabellen, jetzt nur eine)</t>
+  </si>
+  <si>
+    <t>07.02.2020,08.02.2020</t>
+  </si>
+  <si>
+    <t>Das Problem mit dem Zugriff auf Elementen des numpy-Arrays analysieren und lösen</t>
+  </si>
+  <si>
+    <t>10.02.2020</t>
+  </si>
+  <si>
+    <t>11.02.2020-15.02.2020</t>
+  </si>
+  <si>
+    <t>Testen des Registrierungsteil</t>
+  </si>
+  <si>
+    <t>In der Finalabgabe der Dokumentation arbeiten</t>
+  </si>
+  <si>
+    <t>16.02.2020-20.02.2020, 30.02.2020-03.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die End-Präsentation von der Diplomarbeit </t>
+  </si>
+  <si>
+    <t>04.03.2020-06.03.2020</t>
   </si>
 </sst>
 </file>
@@ -241,9 +334,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -253,9 +355,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,15 +639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85" customWidth="1"/>
+    <col min="1" max="1" width="123.83203125" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" customWidth="1"/>
     <col min="3" max="3" width="59.1640625" customWidth="1"/>
   </cols>
@@ -573,8 +679,8 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>SUM(C3:C34)</f>
-        <v>101</v>
+        <f>SUM(C3:C50)</f>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -915,6 +1021,182 @@
         <v>58</v>
       </c>
       <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50">
         <v>5</v>
       </c>
     </row>
